--- a/ky/downloads/data-excel/3.a.1.xlsx
+++ b/ky/downloads/data-excel/3.a.1.xlsx
@@ -928,11 +928,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -942,7 +940,7 @@
     <col min="4" max="6" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>101</v>
       </c>
@@ -957,7 +955,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -968,8 +966,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -994,8 +992,11 @@
       <c r="H4" s="8">
         <v>2022</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="8">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
@@ -1020,8 +1021,11 @@
       <c r="H5" s="43">
         <v>5.6504815716081698</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="43">
+        <v>5.7627222366917641</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>76</v>
       </c>
@@ -1036,7 +1040,7 @@
       <c r="F6" s="37"/>
       <c r="G6" s="40"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
         <v>12</v>
       </c>
@@ -1061,8 +1065,11 @@
       <c r="H7" s="44">
         <v>11.990552717185041</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="44">
+        <v>12.150374768642443</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
         <v>9</v>
       </c>
@@ -1087,8 +1094,11 @@
       <c r="H8" s="44">
         <v>0.36686386493060885</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="44">
+        <v>0.33526865592135835</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>15</v>
       </c>
@@ -1103,8 +1113,9 @@
       <c r="F9" s="38"/>
       <c r="G9" s="41"/>
       <c r="H9" s="44"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="44"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>18</v>
       </c>
@@ -1129,8 +1140,11 @@
       <c r="H10" s="44">
         <v>4.7585078053197183</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="44">
+        <v>4.1862505557986136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
         <v>21</v>
       </c>
@@ -1155,8 +1169,11 @@
       <c r="H11" s="44">
         <v>6.2147211180387529</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="44">
+        <v>6.7483562655646434</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="22" t="s">
         <v>24</v>
       </c>
@@ -1171,8 +1188,9 @@
       <c r="F12" s="38"/>
       <c r="G12" s="41"/>
       <c r="H12" s="44"/>
-    </row>
-    <row r="13" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I12" s="44"/>
+    </row>
+    <row r="13" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>27</v>
       </c>
@@ -1197,8 +1215,11 @@
       <c r="H13" s="44">
         <v>6.6299725226642234</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I13" s="44">
+        <v>11.721778533441505</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
         <v>30</v>
       </c>
@@ -1223,8 +1244,11 @@
       <c r="H14" s="44">
         <v>1.0045350275012754</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I14" s="44">
+        <v>0.39226026012037718</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
         <v>33</v>
       </c>
@@ -1249,8 +1273,11 @@
       <c r="H15" s="44">
         <v>15.32109744080277</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I15" s="44">
+        <v>15.431347214780089</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
         <v>36</v>
       </c>
@@ -1275,8 +1302,11 @@
       <c r="H16" s="44">
         <v>11.932654937916501</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I16" s="44">
+        <v>12.56881331951053</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
         <v>39</v>
       </c>
@@ -1301,8 +1331,11 @@
       <c r="H17" s="44">
         <v>4.4024960942722968</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I17" s="44">
+        <v>4.9361801817513591</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
         <v>42</v>
       </c>
@@ -1327,8 +1360,11 @@
       <c r="H18" s="44">
         <v>13.275841712798133</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I18" s="44">
+        <v>13.92788271827051</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
         <v>45</v>
       </c>
@@ -1353,8 +1389,11 @@
       <c r="H19" s="44">
         <v>5.5953228746387378</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I19" s="44">
+        <v>5.796504268446359</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
         <v>48</v>
       </c>
@@ -1379,8 +1418,11 @@
       <c r="H20" s="44">
         <v>5.7561942305949083</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I20" s="44">
+        <v>3.6469692666385813</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
         <v>51</v>
       </c>
@@ -1405,8 +1447,11 @@
       <c r="H21" s="44">
         <v>0.91260128840317045</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I21" s="44">
+        <v>1.2344990530700553</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>78</v>
       </c>
@@ -1421,8 +1466,9 @@
       <c r="F22" s="38"/>
       <c r="G22" s="41"/>
       <c r="H22" s="44"/>
-    </row>
-    <row r="23" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I22" s="44"/>
+    </row>
+    <row r="23" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
         <v>80</v>
       </c>
@@ -1447,8 +1493,11 @@
       <c r="H23" s="44">
         <v>0.12558892880771302</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I23" s="44">
+        <v>0.33854574252686492</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
         <v>81</v>
       </c>
@@ -1473,8 +1522,11 @@
       <c r="H24" s="44">
         <v>6.813728136595028</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="I24" s="44">
+        <v>7.0095823182535142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
         <v>82</v>
       </c>
@@ -1499,8 +1551,11 @@
       <c r="H25" s="44">
         <v>7.4835121062312364</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="44">
+        <v>7.4180588363268161</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
         <v>84</v>
       </c>
@@ -1515,8 +1570,9 @@
       <c r="F26" s="38"/>
       <c r="G26" s="41"/>
       <c r="H26" s="44"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="44"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="31" t="s">
         <v>87</v>
       </c>
@@ -1541,8 +1597,11 @@
       <c r="H27" s="44">
         <v>1.0698262411858328</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="44">
+        <v>1.3575537444685963</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="31" t="s">
         <v>54</v>
       </c>
@@ -1567,8 +1626,11 @@
       <c r="H28" s="44">
         <v>2.525977374670846</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="44">
+        <v>3.7000582818073822</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="31" t="s">
         <v>56</v>
       </c>
@@ -1593,8 +1655,11 @@
       <c r="H29" s="44">
         <v>6.9014261042903025</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="44">
+        <v>7.0145832826742662</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="31" t="s">
         <v>58</v>
       </c>
@@ -1619,8 +1684,11 @@
       <c r="H30" s="44">
         <v>7.9091356334900151</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="44">
+        <v>7.601388319014589</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="31" t="s">
         <v>60</v>
       </c>
@@ -1645,8 +1713,11 @@
       <c r="H31" s="44">
         <v>3.3800067710254136</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="44">
+        <v>3.2001807961995414</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="30" t="s">
         <v>62</v>
       </c>
@@ -1661,8 +1732,9 @@
       <c r="F32" s="38"/>
       <c r="G32" s="41"/>
       <c r="H32" s="44"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="44"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
         <v>64</v>
       </c>
@@ -1687,8 +1759,11 @@
       <c r="H33" s="44">
         <v>4.7357406632935053</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="44">
+        <v>6.1374688939827911</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="33" t="s">
         <v>66</v>
       </c>
@@ -1713,8 +1788,11 @@
       <c r="H34" s="44">
         <v>4.7664658340238164</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="44">
+        <v>5.522716841454633</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="33" t="s">
         <v>68</v>
       </c>
@@ -1739,8 +1817,11 @@
       <c r="H35" s="44">
         <v>5.4209310439574798</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="44">
+        <v>5.959494359842247</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="33" t="s">
         <v>70</v>
       </c>
@@ -1765,8 +1846,11 @@
       <c r="H36" s="44">
         <v>6.4917222807546029</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I36" s="44">
+        <v>5.4831892692336535</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="34" t="s">
         <v>72</v>
       </c>
@@ -1791,8 +1875,11 @@
       <c r="H37" s="45">
         <v>6.4231110817165149</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="45">
+        <v>5.7612749525079918</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D38" s="18"/>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
